--- a/gt_buttons.xlsx
+++ b/gt_buttons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.lyngfelt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C004683-F219-4143-9549-8F719EABB43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE11C832-7D70-421F-B8A7-5FCB5D5DBCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="5205" windowWidth="28800" windowHeight="15825" xr2:uid="{3C93D230-4730-46FB-BAA9-DAF808D9C909}"/>
+    <workbookView xWindow="1845" yWindow="5400" windowWidth="28800" windowHeight="15825" xr2:uid="{3C93D230-4730-46FB-BAA9-DAF808D9C909}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Button name</t>
-  </si>
-  <si>
-    <t>First Comment</t>
-  </si>
-  <si>
-    <t>Second Comment</t>
   </si>
   <si>
     <t>10 kph sign</t>
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -422,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437CDAA4-75D2-4A2A-AFD5-13E452CC4D0E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,26 +432,20 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -472,6 +463,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3257206a-333f-429b-a341-84800e3745bd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EACF7D3C0C0E438E8B8F09F3321198" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49370b04f805dfddcb901fec4a568dcf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3257206a-333f-429b-a341-84800e3745bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="978a93fa0fdeb616ab1500cbb5347abe" ns3:_="">
     <xsd:import namespace="3257206a-333f-429b-a341-84800e3745bd"/>
@@ -653,14 +652,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3257206a-333f-429b-a341-84800e3745bd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{602CCF6F-C047-4599-B799-F96BA1EBABDD}">
   <ds:schemaRefs>
@@ -670,6 +661,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27FCB999-7AA0-4E36-AC38-6F1E32EB0286}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3257206a-333f-429b-a341-84800e3745bd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C427C461-3354-45CD-AF61-E756EF71D30D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -687,22 +694,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27FCB999-7AA0-4E36-AC38-6F1E32EB0286}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3257206a-333f-429b-a341-84800e3745bd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f1985617-6145-4c1e-96b8-77ef8920e949}" enabled="0" method="" siteId="{f1985617-6145-4c1e-96b8-77ef8920e949}" removed="1"/>

--- a/gt_buttons.xlsx
+++ b/gt_buttons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.lyngfelt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE11C832-7D70-421F-B8A7-5FCB5D5DBCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9277D62C-E537-42C0-9EB0-515BCEC45E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1845" yWindow="5400" windowWidth="28800" windowHeight="15825" xr2:uid="{3C93D230-4730-46FB-BAA9-DAF808D9C909}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Button name</t>
   </si>
@@ -48,16 +48,73 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>20 kph sign</t>
+  </si>
+  <si>
+    <t>30 kph sign</t>
+  </si>
+  <si>
+    <t>40 kph sign</t>
+  </si>
+  <si>
+    <t>50 kph sign</t>
+  </si>
+  <si>
+    <t>60 kph sign</t>
+  </si>
+  <si>
+    <t>70 kph sign</t>
+  </si>
+  <si>
+    <t>80 kph sign</t>
+  </si>
+  <si>
+    <t>90 kph sign</t>
+  </si>
+  <si>
+    <t>100 kph sign</t>
+  </si>
+  <si>
+    <t>110 kph sign</t>
+  </si>
+  <si>
+    <t>120 kph sign</t>
+  </si>
+  <si>
+    <t>130 kph sign</t>
+  </si>
+  <si>
+    <t>140 kph sign</t>
+  </si>
+  <si>
+    <t>Stop sign</t>
+  </si>
+  <si>
+    <t>Traffic light</t>
+  </si>
+  <si>
+    <t>Roundabout</t>
+  </si>
+  <si>
+    <t>Speed bump</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -419,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437CDAA4-75D2-4A2A-AFD5-13E452CC4D0E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +505,144 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -463,14 +657,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3257206a-333f-429b-a341-84800e3745bd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EACF7D3C0C0E438E8B8F09F3321198" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49370b04f805dfddcb901fec4a568dcf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3257206a-333f-429b-a341-84800e3745bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="978a93fa0fdeb616ab1500cbb5347abe" ns3:_="">
     <xsd:import namespace="3257206a-333f-429b-a341-84800e3745bd"/>
@@ -652,6 +838,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3257206a-333f-429b-a341-84800e3745bd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{602CCF6F-C047-4599-B799-F96BA1EBABDD}">
   <ds:schemaRefs>
@@ -661,22 +855,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27FCB999-7AA0-4E36-AC38-6F1E32EB0286}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3257206a-333f-429b-a341-84800e3745bd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C427C461-3354-45CD-AF61-E756EF71D30D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -694,6 +872,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27FCB999-7AA0-4E36-AC38-6F1E32EB0286}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3257206a-333f-429b-a341-84800e3745bd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f1985617-6145-4c1e-96b8-77ef8920e949}" enabled="0" method="" siteId="{f1985617-6145-4c1e-96b8-77ef8920e949}" removed="1"/>

--- a/gt_buttons.xlsx
+++ b/gt_buttons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.lyngfelt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9277D62C-E537-42C0-9EB0-515BCEC45E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3658C1C0-749F-4842-BAC3-4ADD02997D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1845" yWindow="5400" windowWidth="28800" windowHeight="15825" xr2:uid="{3C93D230-4730-46FB-BAA9-DAF808D9C909}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Button name</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Speed bump</t>
+  </si>
+  <si>
+    <t>Row</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437CDAA4-75D2-4A2A-AFD5-13E452CC4D0E}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,155 +492,212 @@
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
         <v>2</v>
       </c>
     </row>
@@ -657,6 +717,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3257206a-333f-429b-a341-84800e3745bd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EACF7D3C0C0E438E8B8F09F3321198" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49370b04f805dfddcb901fec4a568dcf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3257206a-333f-429b-a341-84800e3745bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="978a93fa0fdeb616ab1500cbb5347abe" ns3:_="">
     <xsd:import namespace="3257206a-333f-429b-a341-84800e3745bd"/>
@@ -838,14 +906,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3257206a-333f-429b-a341-84800e3745bd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{602CCF6F-C047-4599-B799-F96BA1EBABDD}">
   <ds:schemaRefs>
@@ -855,6 +915,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27FCB999-7AA0-4E36-AC38-6F1E32EB0286}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3257206a-333f-429b-a341-84800e3745bd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C427C461-3354-45CD-AF61-E756EF71D30D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -872,22 +948,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27FCB999-7AA0-4E36-AC38-6F1E32EB0286}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3257206a-333f-429b-a341-84800e3745bd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f1985617-6145-4c1e-96b8-77ef8920e949}" enabled="0" method="" siteId="{f1985617-6145-4c1e-96b8-77ef8920e949}" removed="1"/>

--- a/gt_buttons.xlsx
+++ b/gt_buttons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.lyngfelt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3658C1C0-749F-4842-BAC3-4ADD02997D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B286CCD0-6DCD-431A-BA04-FCB840EE4270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1845" yWindow="5400" windowWidth="28800" windowHeight="15825" xr2:uid="{3C93D230-4730-46FB-BAA9-DAF808D9C909}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Button name</t>
   </si>
@@ -44,9 +44,6 @@
     <t>10 kph sign</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -102,6 +99,24 @@
   </si>
   <si>
     <t>Row</t>
+  </si>
+  <si>
+    <t>Yield sign</t>
+  </si>
+  <si>
+    <t>End of highway</t>
+  </si>
+  <si>
+    <t>Unlimited speed sign</t>
+  </si>
+  <si>
+    <t>End of urban/city</t>
+  </si>
+  <si>
+    <t>Start of highway</t>
+  </si>
+  <si>
+    <t>Start of urban/city</t>
   </si>
 </sst>
 </file>
@@ -479,15 +494,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437CDAA4-75D2-4A2A-AFD5-13E452CC4D0E}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -497,29 +512,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -527,10 +536,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -538,10 +544,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -549,10 +552,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -560,10 +560,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -571,10 +568,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -582,10 +576,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -593,10 +584,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -604,10 +592,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -615,10 +600,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -626,10 +608,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -637,10 +616,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -648,10 +624,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -659,21 +632,15 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -681,10 +648,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -692,13 +656,58 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -717,14 +726,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3257206a-333f-429b-a341-84800e3745bd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EACF7D3C0C0E438E8B8F09F3321198" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49370b04f805dfddcb901fec4a568dcf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3257206a-333f-429b-a341-84800e3745bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="978a93fa0fdeb616ab1500cbb5347abe" ns3:_="">
     <xsd:import namespace="3257206a-333f-429b-a341-84800e3745bd"/>
@@ -906,6 +907,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3257206a-333f-429b-a341-84800e3745bd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{602CCF6F-C047-4599-B799-F96BA1EBABDD}">
   <ds:schemaRefs>
@@ -915,22 +924,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27FCB999-7AA0-4E36-AC38-6F1E32EB0286}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3257206a-333f-429b-a341-84800e3745bd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C427C461-3354-45CD-AF61-E756EF71D30D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -948,6 +941,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27FCB999-7AA0-4E36-AC38-6F1E32EB0286}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3257206a-333f-429b-a341-84800e3745bd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f1985617-6145-4c1e-96b8-77ef8920e949}" enabled="0" method="" siteId="{f1985617-6145-4c1e-96b8-77ef8920e949}" removed="1"/>

--- a/gt_buttons.xlsx
+++ b/gt_buttons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.lyngfelt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B286CCD0-6DCD-431A-BA04-FCB840EE4270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8807F3E-6A14-4035-B832-F62A6CBF41EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="5400" windowWidth="28800" windowHeight="15825" xr2:uid="{3C93D230-4730-46FB-BAA9-DAF808D9C909}"/>
+    <workbookView xWindow="31455" yWindow="975" windowWidth="24300" windowHeight="16170" xr2:uid="{3C93D230-4730-46FB-BAA9-DAF808D9C909}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Button name</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>Start of urban/city</t>
+  </si>
+  <si>
+    <t>Start of ALCA available</t>
+  </si>
+  <si>
+    <t>End of ALCA available</t>
   </si>
 </sst>
 </file>
@@ -494,15 +500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437CDAA4-75D2-4A2A-AFD5-13E452CC4D0E}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -640,7 +646,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -648,7 +654,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -656,7 +662,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -664,7 +670,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -672,15 +678,15 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>3</v>
@@ -688,7 +694,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -696,7 +702,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -704,10 +710,26 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -726,6 +748,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="3257206a-333f-429b-a341-84800e3745bd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EACF7D3C0C0E438E8B8F09F3321198" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="49370b04f805dfddcb901fec4a568dcf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3257206a-333f-429b-a341-84800e3745bd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="978a93fa0fdeb616ab1500cbb5347abe" ns3:_="">
     <xsd:import namespace="3257206a-333f-429b-a341-84800e3745bd"/>
@@ -907,14 +937,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="3257206a-333f-429b-a341-84800e3745bd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{602CCF6F-C047-4599-B799-F96BA1EBABDD}">
   <ds:schemaRefs>
@@ -924,6 +946,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27FCB999-7AA0-4E36-AC38-6F1E32EB0286}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3257206a-333f-429b-a341-84800e3745bd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C427C461-3354-45CD-AF61-E756EF71D30D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -941,22 +979,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27FCB999-7AA0-4E36-AC38-6F1E32EB0286}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3257206a-333f-429b-a341-84800e3745bd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f1985617-6145-4c1e-96b8-77ef8920e949}" enabled="0" method="" siteId="{f1985617-6145-4c1e-96b8-77ef8920e949}" removed="1"/>
